--- a/pred_ohlcv/54_21/2019-11-20 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ANKR ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14398.12549469377</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>317250.1890053062</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>351184.1890053062</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1388520.086705306</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9380360.130205307</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6928944.986905308</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3671057.060305308</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3671057.060305308</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3671057.060305308</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4296180.426205307</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4407953.320005307</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>5693993.775605307</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>5686989.775605307</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5687257.775605307</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5820097.775605307</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4758508.707805308</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5260057.931505308</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5147730.524305307</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4262915.696705307</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1487607.020905307</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ANKR ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>157671.4382053062</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>146011.4382053062</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>95074.87450530623</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-27832.12549469377</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -964,7 +964,7 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>240080.8758053062</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>258510.1890053063</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>317250.1890053062</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>351184.1890053062</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1388520.086705306</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>8901348.471305307</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8865891.085505307</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>8164458.599805307</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9380360.130205307</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7361208.487705307</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6928944.986905308</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4296180.426205307</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4407953.320005307</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5015320.987505307</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4742603.707905307</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>5147730.524305307</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4479007.957105307</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
